--- a/bin/contaminant_dict_ref.xlsx
+++ b/bin/contaminant_dict_ref.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angelasun/Downloads/contamination-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angelasun/Downloads/contamination-data/bin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49FBE8CA-DA79-AE48-9723-DB2373BD85C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2F7E29-62FE-5140-9939-0E758383DA3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16080" yWindow="5720" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{4822B3BB-0C93-524F-83D5-E831C419493D}"/>
+    <workbookView xWindow="5020" yWindow="5520" windowWidth="27640" windowHeight="16940" xr2:uid="{4822B3BB-0C93-524F-83D5-E831C419493D}"/>
   </bookViews>
   <sheets>
     <sheet name="genus_table" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="540">
   <si>
     <t>Genus</t>
   </si>
@@ -99,9 +99,6 @@
     <t>extraction_kit</t>
   </si>
   <si>
-    <t>1, 4, 22</t>
-  </si>
-  <si>
     <t>Flavobacterium</t>
   </si>
   <si>
@@ -144,9 +141,6 @@
     <t>commensal</t>
   </si>
   <si>
-    <t>1, 3, 29</t>
-  </si>
-  <si>
     <t>Xanthomonas</t>
   </si>
   <si>
@@ -315,9 +309,6 @@
     <t>soil_water, skin</t>
   </si>
   <si>
-    <t>4, 7, 12, 13</t>
-  </si>
-  <si>
     <t>Pilimelia</t>
   </si>
   <si>
@@ -336,9 +327,6 @@
     <t>Bifidobacterium</t>
   </si>
   <si>
-    <t>gut, vagina, oral_cavity</t>
-  </si>
-  <si>
     <t>4, 12, 13, 45</t>
   </si>
   <si>
@@ -510,12 +498,6 @@
     <t>Lactobacillus</t>
   </si>
   <si>
-    <t>gut, vagina</t>
-  </si>
-  <si>
-    <t>4, 13</t>
-  </si>
-  <si>
     <t>Streptococcus</t>
   </si>
   <si>
@@ -786,18 +768,12 @@
     <t>sterile_water</t>
   </si>
   <si>
-    <t>4, 7, 14, 37</t>
-  </si>
-  <si>
     <t>Curvibacter</t>
   </si>
   <si>
     <t>Delftia</t>
   </si>
   <si>
-    <t>4, 37</t>
-  </si>
-  <si>
     <t>Pelomonas</t>
   </si>
   <si>
@@ -1077,9 +1053,6 @@
     <t>Gardnerella</t>
   </si>
   <si>
-    <t>vagina</t>
-  </si>
-  <si>
     <t>Streptophyta</t>
   </si>
   <si>
@@ -1173,9 +1146,6 @@
     <t>Simonsiella</t>
   </si>
   <si>
-    <t>Norovirus</t>
-  </si>
-  <si>
     <t>Aspergillus</t>
   </si>
   <si>
@@ -1218,15 +1188,6 @@
     <t>Yersinia</t>
   </si>
   <si>
-    <t>Hepatovirus</t>
-  </si>
-  <si>
-    <t>Enterovirus</t>
-  </si>
-  <si>
-    <t>Rotavirus</t>
-  </si>
-  <si>
     <t>Cryptosporidium</t>
   </si>
   <si>
@@ -1279,15 +1240,6 @@
   </si>
   <si>
     <t>Amanita</t>
-  </si>
-  <si>
-    <t>Avastrovirus</t>
-  </si>
-  <si>
-    <t>Mamastrovirus</t>
-  </si>
-  <si>
-    <t>Mastadenovirus</t>
   </si>
   <si>
     <t>Coxiella</t>
@@ -1553,6 +1505,159 @@
   </si>
   <si>
     <t>Ryan, M.P. and Pembroke, J.T., 2018. Brevundimonas spp: Emerging global opportunistic pathogens. Virulence, 9(1), pp.480-493.</t>
+  </si>
+  <si>
+    <t>Mahmood S, Taylor KE, Overman TL, McCormick MI.2012.Acute Infective Endocarditis Caused by Delftia acidovorans, a Rare Pathogen Complicating Intravenous Drug Use. J Clin Microbiol50:.https://doi.org/10.1128/jcm.00553-12</t>
+  </si>
+  <si>
+    <t>4, 37, 54</t>
+  </si>
+  <si>
+    <t>Palleti SK, Bavi SR, Fitzpatrick M, Wadhwa A. First Case Report of Sphingobium lactosutens as a Human Pathogen Causing Peritoneal Dialysis-Related Peritonitis. Cureus. 2022 Jul 26;14(7):e27293. doi: 10.7759/cureus.27293. PMID: 36039234; PMCID: PMC9403258.</t>
+  </si>
+  <si>
+    <t>4, 7, 55</t>
+  </si>
+  <si>
+    <t>Ryan MP, Sevjahova L, Gorman R, White S. The Emergence of the Genus Comamonas as Important Opportunistic Pathogens. Pathogens. 2022 Sep 12;11(9):1032. doi: 10.3390/pathogens11091032. PMID: 36145464; PMCID: PMC9504711.</t>
+  </si>
+  <si>
+    <t>4, 7, 14, 37, 56</t>
+  </si>
+  <si>
+    <t>Rohilla R, Raina D, Singh M, Pandita AK, Patwal S. Evaluation of Sphingomonas paucimobilis as an emerging nosocomial pathogen in a teaching hospital in Uttarakhand. Iran J Microbiol. 2021 Oct;13(5):617-623. doi: 10.18502/ijm.v13i5.7425. PMID: 34900159; PMCID: PMC8629817.</t>
+  </si>
+  <si>
+    <t>7, 14, 57</t>
+  </si>
+  <si>
+    <t>Kocur, M., Kloos, W.E. and SCHLEIFER, K.H., 2006. The genus micrococcus. In The prokaryotes (pp. 961-971). Springer, New York, NY.</t>
+  </si>
+  <si>
+    <t>4, 7, 12, 13, 58</t>
+  </si>
+  <si>
+    <t>Hugo, C.J., Bruun, B. and Jooste, P.J., 2006. The genera empedobacter and myroides. In The prokaryotes (pp. 630-637). Springer, New York, NY.</t>
+  </si>
+  <si>
+    <t>soil_water, gut, bronchial, bodily fluids</t>
+  </si>
+  <si>
+    <t>Cannon, J.P., Lee, T.A., Bolanos, J.T. and Danziger, L.H., 2005. Pathogenic relevance of Lactobacillus: a retrospective review of over 200 cases. European Journal of Clinical Microbiology and Infectious Diseases, 24, pp.31-40.</t>
+  </si>
+  <si>
+    <t>4, 13, 60</t>
+  </si>
+  <si>
+    <t>4, 61</t>
+  </si>
+  <si>
+    <t>Napolitani, M., Troiano, G., Bedogni, C., Messina, G. and Nante, N., 2019. Kocuria kristinae: an emerging pathogen in medical practice. Journal of medical microbiology, 68(11), pp.1596-1603.</t>
+  </si>
+  <si>
+    <t>skin, mucosa</t>
+  </si>
+  <si>
+    <t>Kawasaki, A., 2010. Hydrocarbon-degrading sphingomonads: Sphingomonas, sphingobium, novosphingobium, and sphingopyxis. In Handbook of hydrocarbon and lipid microbiology (pp. 1693-1705). Springer, Berlin, Heidelberg.</t>
+  </si>
+  <si>
+    <t>4, 62</t>
+  </si>
+  <si>
+    <t>soil_water, plant</t>
+  </si>
+  <si>
+    <t>Gaston, M.A., 1988. Enterobacter: an emerging nosocomial pathogen. Journal of Hospital Infection, 11(3), pp.197-208.</t>
+  </si>
+  <si>
+    <t>4, 12, 63</t>
+  </si>
+  <si>
+    <t>4, 64</t>
+  </si>
+  <si>
+    <t>Funke, G., Aravena-Roman, M. and Frodl, R., 2005. First description of Curtobacterium spp. isolated from human clinical specimens. Journal of clinical microbiology, 43(3), pp.1032-1036.</t>
+  </si>
+  <si>
+    <t>Aerococcus</t>
+  </si>
+  <si>
+    <t>Rasmussen, M., 2016. Aerococcus: an increasingly acknowledged human pathogen. Clinical Microbiology and Infection, 22(1), pp.22-27.</t>
+  </si>
+  <si>
+    <t>air, dust</t>
+  </si>
+  <si>
+    <t>Methanocaldococcus</t>
+  </si>
+  <si>
+    <t>Methanobrevibacter</t>
+  </si>
+  <si>
+    <t>Methanosphaera</t>
+  </si>
+  <si>
+    <t>Methanosarcina</t>
+  </si>
+  <si>
+    <t>Thermoplasma</t>
+  </si>
+  <si>
+    <t>Methanobacterium</t>
+  </si>
+  <si>
+    <t>Methanomethylophilus</t>
+  </si>
+  <si>
+    <t>Methanomassiliicoccus</t>
+  </si>
+  <si>
+    <t>gut, mouth, mucosa</t>
+  </si>
+  <si>
+    <t>Sogodogo, E., Drancourt, M. and Grine, G., 2019. Methanogens as emerging pathogens in anaerobic abscesses. European Journal of Clinical Microbiology &amp; Infectious Diseases, 38, pp.811-818.</t>
+  </si>
+  <si>
+    <t>Jang, E.Y., Chun, J., Kwack, K.H., Moon, J.H. and Lee, J.H., 2024. Complete genome sequence of Schaalia odontolytica isolated from subgingival biofilm. BMC Genomic Data, 25(1), p.15.</t>
+  </si>
+  <si>
+    <t>Schaalia</t>
+  </si>
+  <si>
+    <t>mouth, soft_tissue</t>
+  </si>
+  <si>
+    <t>1, 4, 12, 22</t>
+  </si>
+  <si>
+    <t>1, 3, 4, 29</t>
+  </si>
+  <si>
+    <t>4,7</t>
+  </si>
+  <si>
+    <t>extraction_kit, lab, pcr</t>
+  </si>
+  <si>
+    <t>gut, genitals, oral_cavity</t>
+  </si>
+  <si>
+    <t>gut, genitals</t>
+  </si>
+  <si>
+    <t>Adenoviridae</t>
+  </si>
+  <si>
+    <t>Caliciviridae</t>
+  </si>
+  <si>
+    <t>Picornaviridae</t>
+  </si>
+  <si>
+    <t>Sedoreoviridae</t>
+  </si>
+  <si>
+    <t>Astroviridae</t>
   </si>
 </sst>
 </file>
@@ -1951,10 +2056,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A0E6A2D-7F01-AB49-9D89-C2DFE9B51DDB}">
-  <dimension ref="A1:F310"/>
+  <dimension ref="A1:F312"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2038,18 +2143,18 @@
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>20</v>
+        <v>529</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -2064,12 +2169,12 @@
         <v>15</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -2084,12 +2189,12 @@
         <v>15</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -2104,15 +2209,15 @@
         <v>15</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
         <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>8</v>
@@ -2124,18 +2229,18 @@
         <v>19</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>18</v>
@@ -2144,15 +2249,15 @@
         <v>15</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
         <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>8</v>
@@ -2164,159 +2269,162 @@
         <v>19</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>35</v>
+        <v>530</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="B19" t="s">
+        <v>83</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -2324,56 +2432,59 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="E22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -2386,7 +2497,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -2399,7 +2510,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -2412,7 +2523,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -2425,7 +2536,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -2438,7 +2549,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -2451,7 +2562,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -2464,38 +2575,43 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="3"/>
+        <v>81</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>339</v>
+      </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="3">
-        <v>4</v>
+      <c r="F30" s="3" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="B31" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -2508,50 +2624,58 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="B33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>505</v>
+      </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="3">
-        <v>4</v>
+      <c r="F33" s="3" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+      <c r="D34" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="E34" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F34" s="3">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>92</v>
+        <v>19</v>
+      </c>
+      <c r="F35" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -2564,9 +2688,11 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C37" s="3"/>
+        <v>92</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
         <v>19</v>
@@ -2577,11 +2703,9 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
         <v>19</v>
@@ -2592,7 +2716,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -2605,70 +2729,70 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="B40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="E40" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F40" s="3">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B41" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" s="3" t="s">
+      <c r="D41" s="3"/>
+      <c r="E41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>102</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>103</v>
+      <c r="F43" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -2681,169 +2805,169 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C45" s="3"/>
+        <v>103</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F45" s="3">
-        <v>4</v>
+      <c r="F45" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>102</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>108</v>
+      <c r="F46" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C47" s="3"/>
+        <v>106</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F47" s="3">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>111</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>112</v>
+        <v>19</v>
+      </c>
+      <c r="F48" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C49" s="3"/>
+        <v>110</v>
+      </c>
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F49" s="3">
-        <v>4</v>
+      <c r="F49" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B50" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>115</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>116</v>
+      <c r="F50" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C51" s="3"/>
+        <v>114</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F51" s="3">
-        <v>4</v>
+      <c r="F51" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>102</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="B52" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B53" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B54" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>122</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>125</v>
+        <v>19</v>
+      </c>
+      <c r="F55" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -2856,7 +2980,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -2869,15 +2993,20 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C58" s="3"/>
+        <v>125</v>
+      </c>
+      <c r="B58" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F58" s="3">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -2885,40 +3014,35 @@
         <v>129</v>
       </c>
       <c r="B59" t="s">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B60" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>122</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>134</v>
+      <c r="F60" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -2931,7 +3055,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -2944,97 +3068,97 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C63" s="3"/>
+        <v>134</v>
+      </c>
+      <c r="B63" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F63" s="3">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B64" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>73</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>125</v>
+        <v>19</v>
+      </c>
+      <c r="F65" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F66" s="3">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C67" s="3"/>
+        <v>140</v>
+      </c>
+      <c r="B67" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B68" t="s">
-        <v>13</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>54</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>145</v>
+        <v>19</v>
+      </c>
+      <c r="F68" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -3047,65 +3171,65 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
+        <v>144</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="E70" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F70" s="3">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
       <c r="E71" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>125</v>
+        <v>19</v>
+      </c>
+      <c r="F71" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C72" s="3"/>
+        <v>146</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F72" s="3">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>70</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>151</v>
+        <v>19</v>
+      </c>
+      <c r="F73" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -3118,119 +3242,124 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C75" s="3"/>
+        <v>150</v>
+      </c>
+      <c r="B75" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F75" s="3">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>102</v>
+        <v>534</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>155</v>
+        <v>502</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
+      </c>
+      <c r="B77" t="s">
+        <v>13</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B78" t="s">
-        <v>13</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>160</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>161</v>
+        <v>19</v>
+      </c>
+      <c r="F78" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C79" s="3"/>
+        <v>157</v>
+      </c>
+      <c r="B79" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F79" s="3">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B80" t="s">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>165</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>102</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>103</v>
+      <c r="F81" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C82" s="3"/>
+        <v>162</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3" t="s">
         <v>19</v>
@@ -3241,11 +3370,9 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>102</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3" t="s">
         <v>19</v>
@@ -3256,7 +3383,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -3269,9 +3396,11 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C85" s="3"/>
+        <v>165</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3" t="s">
         <v>19</v>
@@ -3282,10 +3411,10 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3" t="s">
@@ -3297,10 +3426,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="3" t="s">
@@ -3312,11 +3441,9 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>102</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3" t="s">
         <v>19</v>
@@ -3327,7 +3454,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -3340,7 +3467,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
@@ -3353,7 +3480,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -3366,7 +3493,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -3379,9 +3506,11 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C93" s="3"/>
+        <v>173</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>174</v>
+      </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3" t="s">
         <v>19</v>
@@ -3392,11 +3521,9 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>180</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3" t="s">
         <v>19</v>
@@ -3407,38 +3534,38 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C95" s="3"/>
+        <v>176</v>
+      </c>
+      <c r="B95" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F95" s="3">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B96" t="s">
-        <v>13</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>183</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>184</v>
+        <v>19</v>
+      </c>
+      <c r="F96" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -3451,38 +3578,38 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C98" s="3"/>
+        <v>181</v>
+      </c>
+      <c r="B98" t="s">
+        <v>83</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F98" s="3">
-        <v>4</v>
+      <c r="F98" s="3" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B99" t="s">
-        <v>85</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>188</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F99" s="3" t="s">
-        <v>189</v>
+      <c r="F99" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -3495,7 +3622,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -3508,7 +3635,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -3521,35 +3648,35 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C103" s="3"/>
+        <v>188</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F103" s="3">
-        <v>4</v>
+      <c r="F103" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>102</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F104" s="3" t="s">
-        <v>108</v>
+      <c r="F104" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -3562,7 +3689,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -3575,7 +3702,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -3588,7 +3715,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -3601,7 +3728,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -3614,7 +3741,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -3627,7 +3754,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -3640,7 +3767,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -3653,7 +3780,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
@@ -3666,7 +3793,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
@@ -3679,38 +3806,38 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C115" s="3"/>
+        <v>200</v>
+      </c>
+      <c r="B115" t="s">
+        <v>13</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>201</v>
+      </c>
       <c r="D115" s="3"/>
       <c r="E115" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F115" s="3">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B116" t="s">
-        <v>13</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>207</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F116" s="3" t="s">
-        <v>145</v>
+        <v>19</v>
+      </c>
+      <c r="F116" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -3723,97 +3850,99 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C118" s="3"/>
+        <v>204</v>
+      </c>
+      <c r="B118" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F118" s="3">
-        <v>4</v>
+      <c r="F118" s="3" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B119" t="s">
         <v>7</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>102</v>
+        <v>207</v>
       </c>
       <c r="D119" s="3"/>
       <c r="E119" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B120" t="s">
-        <v>7</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>213</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F121" s="3" t="s">
-        <v>216</v>
+      <c r="F121" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F122" s="3">
-        <v>4</v>
+      <c r="F122" s="3" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F123" s="3" t="s">
-        <v>216</v>
+      <c r="F123" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C124" s="3"/>
+        <v>214</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D124" s="3"/>
       <c r="E124" s="3" t="s">
         <v>19</v>
@@ -3824,14 +3953,14 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D125" s="3"/>
       <c r="E125" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F125" s="3">
         <v>4</v>
@@ -3839,14 +3968,12 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F126" s="3">
         <v>4</v>
@@ -3854,7 +3981,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
@@ -3867,7 +3994,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
@@ -3880,11 +4007,9 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3" t="s">
         <v>19</v>
@@ -3895,58 +4020,60 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C130" s="3"/>
+        <v>221</v>
+      </c>
+      <c r="B130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="D130" s="3"/>
       <c r="E130" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F130" s="3">
-        <v>4</v>
+      <c r="F130" s="3" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C131" s="3"/>
-      <c r="D131" s="3"/>
+        <v>223</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="E131" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F131" s="3">
-        <v>4</v>
+        <v>532</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="B132" t="s">
-        <v>7</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>122</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F132" s="3" t="s">
-        <v>228</v>
+      <c r="F132" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F133" s="3">
         <v>4</v>
@@ -3954,7 +4081,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
@@ -3967,7 +4094,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
@@ -3980,120 +4107,128 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
+      </c>
+      <c r="B136" t="s">
+        <v>83</v>
       </c>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F136" s="3">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C137" s="3"/>
+        <v>229</v>
+      </c>
+      <c r="B137" t="s">
+        <v>33</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>508</v>
+      </c>
       <c r="D137" s="3"/>
       <c r="E137" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F137" s="3">
-        <v>4</v>
+      <c r="F137" s="3" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
+      </c>
+      <c r="B138" t="s">
+        <v>13</v>
       </c>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>125</v>
+        <v>231</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
+      </c>
+      <c r="B139" t="s">
+        <v>13</v>
       </c>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F139" s="3">
-        <v>4</v>
+      <c r="F139" s="3" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B140" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
-      <c r="E140" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="E140" s="3"/>
       <c r="F140" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B141" t="s">
-        <v>13</v>
+        <v>236</v>
       </c>
       <c r="C141" s="3"/>
-      <c r="D141" s="3"/>
+      <c r="D141" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="E141" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>239</v>
+        <v>121</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B142" t="s">
-        <v>7</v>
+        <v>237</v>
       </c>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
-      <c r="E142" s="3"/>
-      <c r="F142" s="3" t="s">
-        <v>241</v>
+      <c r="E142" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F142" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C143" s="3"/>
-      <c r="D143" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="D143" s="3"/>
       <c r="E143" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F143" s="3" t="s">
-        <v>125</v>
+        <v>19</v>
+      </c>
+      <c r="F143" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>33</v>
+        <v>239</v>
       </c>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
@@ -4106,7 +4241,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
@@ -4119,20 +4254,27 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C146" s="3"/>
-      <c r="D146" s="3"/>
+        <v>241</v>
+      </c>
+      <c r="B146" t="s">
+        <v>126</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>242</v>
+      </c>
       <c r="E146" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F146" s="3">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
@@ -4145,37 +4287,40 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C148" s="3"/>
+        <v>244</v>
+      </c>
+      <c r="B148" t="s">
+        <v>83</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D148" s="3"/>
       <c r="E148" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F148" s="3">
-        <v>4</v>
+      <c r="F148" s="3" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>131</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="C149" s="3"/>
       <c r="D149" s="3" t="s">
-        <v>248</v>
+        <v>39</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>249</v>
+        <v>147</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
@@ -4188,37 +4333,33 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F151" s="3" t="s">
-        <v>252</v>
+      <c r="F151" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C152" s="3"/>
-      <c r="D152" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="D152" s="3"/>
       <c r="E152" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F152" s="3" t="s">
-        <v>151</v>
+        <v>19</v>
+      </c>
+      <c r="F152" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
@@ -4231,35 +4372,35 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F154" s="3">
-        <v>4</v>
+      <c r="F154" s="3" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C155" s="3"/>
-      <c r="D155" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155" s="3"/>
       <c r="E155" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F155" s="3" t="s">
-        <v>151</v>
+        <v>19</v>
+      </c>
+      <c r="F155" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
@@ -4272,7 +4413,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
@@ -4285,24 +4426,24 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C158" s="3"/>
+        <v>255</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>256</v>
+      </c>
       <c r="D158" s="3"/>
       <c r="E158" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3" t="s">
         <v>19</v>
@@ -4313,7 +4454,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
@@ -4326,74 +4467,79 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F161" s="3">
-        <v>4</v>
+      <c r="F161" s="3" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>264</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F162" s="3" t="s">
-        <v>265</v>
+        <v>19</v>
+      </c>
+      <c r="F162" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="C163" s="3"/>
+        <v>262</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="D163" s="3"/>
       <c r="E163" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F163" s="3">
-        <v>4</v>
+      <c r="F163" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C164" s="3"/>
+        <v>263</v>
+      </c>
+      <c r="B164" t="s">
+        <v>13</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="D164" s="3"/>
       <c r="E164" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F164" s="3">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F165" s="3" t="s">
-        <v>216</v>
+      <c r="F165" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
@@ -4406,213 +4552,217 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>102</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F167" s="3" t="s">
-        <v>103</v>
+      <c r="F167" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="B168" t="s">
-        <v>13</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>272</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F168" s="3" t="s">
-        <v>140</v>
+        <v>19</v>
+      </c>
+      <c r="F168" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
+      </c>
+      <c r="B169" t="s">
+        <v>13</v>
       </c>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F169" s="3">
-        <v>4</v>
+      <c r="F169" s="3" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
+      </c>
+      <c r="B170" t="s">
+        <v>83</v>
       </c>
       <c r="C170" s="3"/>
-      <c r="D170" s="3"/>
+      <c r="D170" s="3" t="s">
+        <v>272</v>
+      </c>
       <c r="E170" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F170" s="3">
-        <v>4</v>
+        <v>65</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="C171" s="3"/>
-      <c r="D171" s="3"/>
+        <v>273</v>
+      </c>
+      <c r="B171" t="s">
+        <v>13</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="E171" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F171" s="3">
-        <v>4</v>
+        <v>43</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="C172" s="3"/>
-      <c r="D172" s="3"/>
+        <v>275</v>
+      </c>
+      <c r="B172" t="s">
+        <v>13</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="E172" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F172" s="3">
-        <v>4</v>
+        <v>43</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B173" t="s">
         <v>13</v>
       </c>
-      <c r="C173" s="3"/>
+      <c r="C173" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="D173" s="3"/>
       <c r="E173" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B174" t="s">
+        <v>13</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D174" s="3"/>
+      <c r="E174" s="3"/>
+      <c r="F174" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="C174" s="3"/>
-      <c r="D174" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E174" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F174" s="3" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B175" t="s">
         <v>13</v>
       </c>
-      <c r="C175" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D175" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="C175" s="3"/>
+      <c r="D175" s="3"/>
       <c r="E175" s="3" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>282</v>
+        <v>231</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="B176" t="s">
-        <v>13</v>
-      </c>
-      <c r="C176" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="C176" s="3"/>
+      <c r="D176" s="3"/>
       <c r="E176" s="3" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>282</v>
+        <v>531</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B177" t="s">
         <v>13</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>102</v>
+        <v>264</v>
       </c>
       <c r="D177" s="3"/>
       <c r="E177" s="3" t="s">
-        <v>19</v>
+        <v>283</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>285</v>
+        <v>155</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B178" t="s">
-        <v>13</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C178" s="3"/>
       <c r="D178" s="3"/>
-      <c r="E178" s="3"/>
+      <c r="E178" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="F178" s="3" t="s">
-        <v>287</v>
+        <v>116</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="B179" t="s">
-        <v>13</v>
+        <v>285</v>
       </c>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F179" s="3" t="s">
-        <v>237</v>
+      <c r="F179" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
@@ -4625,69 +4775,74 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B181" t="s">
-        <v>13</v>
-      </c>
-      <c r="C181" s="3" t="s">
-        <v>272</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F181" s="3" t="s">
-        <v>161</v>
+        <v>19</v>
+      </c>
+      <c r="F181" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B182" t="s">
-        <v>85</v>
-      </c>
-      <c r="C182" s="3"/>
+        <v>288</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D182" s="3"/>
       <c r="E182" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="C183" s="3"/>
+        <v>218</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D183" s="3"/>
       <c r="E183" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F183" s="3">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C184" s="3"/>
-      <c r="D184" s="3"/>
+        <v>289</v>
+      </c>
+      <c r="B184" t="s">
+        <v>7</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E184" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F184" s="3">
-        <v>4</v>
+      <c r="F184" s="3" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C185" s="3"/>
+        <v>291</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D185" s="3"/>
       <c r="E185" s="3" t="s">
         <v>19</v>
@@ -4698,107 +4853,83 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D186" s="3"/>
+        <v>292</v>
+      </c>
+      <c r="C186" s="3"/>
+      <c r="D186" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="E186" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F186" s="3" t="s">
-        <v>125</v>
+        <v>43</v>
+      </c>
+      <c r="F186" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D187" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E187" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F187" s="3" t="s">
-        <v>151</v>
+        <v>293</v>
+      </c>
+      <c r="E187" t="s">
+        <v>15</v>
+      </c>
+      <c r="F187" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D188" s="3"/>
-      <c r="E188" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E188" t="s">
         <v>15</v>
       </c>
-      <c r="F188" s="3" t="s">
-        <v>125</v>
+      <c r="F188" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B189" t="s">
+        <v>295</v>
+      </c>
+      <c r="E189" t="s">
+        <v>283</v>
+      </c>
+      <c r="F189" s="3">
         <v>7</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D189" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E189" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F189" s="3" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D190" s="3"/>
-      <c r="E190" s="3" t="s">
-        <v>19</v>
+        <v>296</v>
+      </c>
+      <c r="E190" t="s">
+        <v>283</v>
       </c>
       <c r="F190" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="C191" s="3"/>
-      <c r="D191" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E191" s="3" t="s">
-        <v>45</v>
+        <v>297</v>
+      </c>
+      <c r="E191" t="s">
+        <v>283</v>
       </c>
       <c r="F191" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
+      </c>
+      <c r="C192" t="s">
+        <v>98</v>
       </c>
       <c r="E192" t="s">
-        <v>15</v>
+        <v>283</v>
       </c>
       <c r="F192" s="3">
         <v>7</v>
@@ -4806,43 +4937,52 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
+      </c>
+      <c r="C193" t="s">
+        <v>98</v>
       </c>
       <c r="E193" t="s">
-        <v>15</v>
+        <v>283</v>
       </c>
       <c r="F193" s="3">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
+      </c>
+      <c r="C194" t="s">
+        <v>98</v>
       </c>
       <c r="E194" t="s">
-        <v>291</v>
-      </c>
-      <c r="F194" s="3">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
+      </c>
+      <c r="B195" t="s">
+        <v>7</v>
       </c>
       <c r="E195" t="s">
-        <v>291</v>
-      </c>
-      <c r="F195" s="3">
-        <v>7</v>
+        <v>283</v>
+      </c>
+      <c r="F195" s="3" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E196" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F196" s="3">
         <v>7</v>
@@ -4850,30 +4990,36 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B197" t="s">
+        <v>7</v>
+      </c>
+      <c r="E197" t="s">
+        <v>15</v>
+      </c>
+      <c r="F197" s="3" t="s">
         <v>306</v>
-      </c>
-      <c r="C197" t="s">
-        <v>102</v>
-      </c>
-      <c r="E197" t="s">
-        <v>291</v>
-      </c>
-      <c r="F197" s="3">
-        <v>7</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
         <v>307</v>
       </c>
+      <c r="B198" t="s">
+        <v>126</v>
+      </c>
       <c r="C198" t="s">
-        <v>102</v>
+        <v>256</v>
+      </c>
+      <c r="D198" t="s">
+        <v>39</v>
       </c>
       <c r="E198" t="s">
-        <v>291</v>
-      </c>
-      <c r="F198" s="3">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="F198" s="3" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
@@ -4881,35 +5027,35 @@
         <v>308</v>
       </c>
       <c r="C199" t="s">
-        <v>102</v>
+        <v>309</v>
       </c>
       <c r="E199" t="s">
         <v>15</v>
       </c>
-      <c r="F199" s="3" t="s">
-        <v>309</v>
+      <c r="F199" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B200" t="s">
-        <v>7</v>
+      <c r="C200" t="s">
+        <v>256</v>
       </c>
       <c r="E200" t="s">
-        <v>291</v>
+        <v>15</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E201" t="s">
-        <v>291</v>
+        <v>19</v>
       </c>
       <c r="F201" s="3">
         <v>7</v>
@@ -4917,127 +5063,124 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="B202" t="s">
+        <v>312</v>
+      </c>
+      <c r="E202" t="s">
+        <v>19</v>
+      </c>
+      <c r="F202" s="3">
         <v>7</v>
-      </c>
-      <c r="E202" t="s">
-        <v>15</v>
-      </c>
-      <c r="F202" s="3" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="C203" t="s">
-        <v>264</v>
-      </c>
-      <c r="D203" t="s">
-        <v>41</v>
+        <v>313</v>
       </c>
       <c r="E203" t="s">
-        <v>10</v>
-      </c>
-      <c r="F203" s="3" t="s">
-        <v>309</v>
+        <v>19</v>
+      </c>
+      <c r="F203" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C204" t="s">
-        <v>317</v>
+        <v>98</v>
       </c>
       <c r="E204" t="s">
-        <v>15</v>
-      </c>
-      <c r="F204" s="3">
-        <v>7</v>
+        <v>19</v>
+      </c>
+      <c r="F204" s="3" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="C205" t="s">
-        <v>264</v>
+        <v>316</v>
       </c>
       <c r="E205" t="s">
-        <v>15</v>
-      </c>
-      <c r="F205" s="3" t="s">
-        <v>309</v>
+        <v>19</v>
+      </c>
+      <c r="F205" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C206" t="s">
+        <v>318</v>
+      </c>
+      <c r="E206" t="s">
+        <v>283</v>
+      </c>
+      <c r="F206" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="E206" t="s">
-        <v>19</v>
-      </c>
-      <c r="F206" s="3">
-        <v>7</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
         <v>320</v>
       </c>
+      <c r="D207" t="s">
+        <v>42</v>
+      </c>
       <c r="E207" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="F207" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
         <v>321</v>
       </c>
+      <c r="D208" t="s">
+        <v>42</v>
+      </c>
       <c r="E208" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="F208" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="C209" t="s">
-        <v>102</v>
-      </c>
-      <c r="E209" t="s">
-        <v>19</v>
-      </c>
-      <c r="F209" s="3" t="s">
-        <v>323</v>
+      <c r="D209" t="s">
+        <v>55</v>
+      </c>
+      <c r="F209" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
-        <v>289</v>
+        <v>323</v>
+      </c>
+      <c r="D210" t="s">
+        <v>55</v>
       </c>
       <c r="F210" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="E211" t="s">
-        <v>19</v>
+      <c r="D211" t="s">
+        <v>55</v>
       </c>
       <c r="F211" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
@@ -5047,39 +5190,51 @@
       <c r="C212" t="s">
         <v>326</v>
       </c>
+      <c r="D212" t="s">
+        <v>39</v>
+      </c>
       <c r="E212" t="s">
-        <v>291</v>
-      </c>
-      <c r="F212" s="3" t="s">
-        <v>327</v>
+        <v>43</v>
+      </c>
+      <c r="F212" s="3">
+        <v>11</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
+      </c>
+      <c r="C213" t="s">
+        <v>326</v>
       </c>
       <c r="D213" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E213" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F213" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B214" t="s">
+        <v>83</v>
+      </c>
+      <c r="C214" t="s">
+        <v>61</v>
+      </c>
+      <c r="D214" t="s">
+        <v>39</v>
+      </c>
+      <c r="E214" t="s">
+        <v>43</v>
+      </c>
+      <c r="F214" s="3" t="s">
         <v>329</v>
-      </c>
-      <c r="D214" t="s">
-        <v>44</v>
-      </c>
-      <c r="E214" t="s">
-        <v>45</v>
-      </c>
-      <c r="F214" s="3">
-        <v>9</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
@@ -5087,10 +5242,13 @@
         <v>330</v>
       </c>
       <c r="D215" t="s">
-        <v>57</v>
+        <v>39</v>
+      </c>
+      <c r="E215" t="s">
+        <v>43</v>
       </c>
       <c r="F215" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
@@ -5098,134 +5256,125 @@
         <v>331</v>
       </c>
       <c r="D216" t="s">
-        <v>57</v>
+        <v>39</v>
+      </c>
+      <c r="E216" t="s">
+        <v>43</v>
       </c>
       <c r="F216" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="D217" t="s">
-        <v>57</v>
-      </c>
-      <c r="F217" s="3">
-        <v>10</v>
+      <c r="C217" t="s">
+        <v>333</v>
+      </c>
+      <c r="E217" t="s">
+        <v>283</v>
+      </c>
+      <c r="F217" s="3" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C218" t="s">
-        <v>334</v>
+        <v>8</v>
       </c>
       <c r="D218" t="s">
-        <v>41</v>
+        <v>242</v>
       </c>
       <c r="E218" t="s">
-        <v>45</v>
-      </c>
-      <c r="F218" s="3">
-        <v>11</v>
+        <v>283</v>
+      </c>
+      <c r="F218" s="3" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C219" t="s">
-        <v>334</v>
-      </c>
-      <c r="D219" t="s">
-        <v>41</v>
+        <v>430</v>
       </c>
       <c r="E219" t="s">
-        <v>45</v>
+        <v>283</v>
       </c>
       <c r="F219" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="B220" t="s">
-        <v>85</v>
+        <v>338</v>
       </c>
       <c r="C220" t="s">
-        <v>63</v>
-      </c>
-      <c r="D220" t="s">
-        <v>41</v>
-      </c>
-      <c r="E220" t="s">
-        <v>45</v>
-      </c>
-      <c r="F220" s="3" t="s">
-        <v>337</v>
+        <v>339</v>
+      </c>
+      <c r="F220" s="3">
+        <v>14</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D221" t="s">
-        <v>41</v>
+        <v>340</v>
+      </c>
+      <c r="C221" t="s">
+        <v>256</v>
       </c>
       <c r="E221" t="s">
-        <v>45</v>
+        <v>283</v>
       </c>
       <c r="F221" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="D222" t="s">
-        <v>41</v>
+        <v>341</v>
+      </c>
+      <c r="C222" t="s">
+        <v>342</v>
       </c>
       <c r="E222" t="s">
-        <v>45</v>
+        <v>283</v>
       </c>
       <c r="F222" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C223" t="s">
-        <v>341</v>
+        <v>8</v>
       </c>
       <c r="E223" t="s">
-        <v>291</v>
-      </c>
-      <c r="F223" s="3" t="s">
-        <v>342</v>
+        <v>19</v>
+      </c>
+      <c r="F223" s="3">
+        <v>14</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C224" t="s">
         <v>8</v>
       </c>
-      <c r="D224" t="s">
-        <v>248</v>
-      </c>
       <c r="E224" t="s">
-        <v>291</v>
-      </c>
-      <c r="F224" s="3" t="s">
-        <v>344</v>
+        <v>19</v>
+      </c>
+      <c r="F224" s="3">
+        <v>14</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
@@ -5233,21 +5382,24 @@
         <v>345</v>
       </c>
       <c r="C225" t="s">
-        <v>346</v>
+        <v>8</v>
       </c>
       <c r="E225" t="s">
-        <v>291</v>
+        <v>19</v>
       </c>
       <c r="F225" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C226" t="s">
-        <v>348</v>
+        <v>8</v>
+      </c>
+      <c r="E226" t="s">
+        <v>19</v>
       </c>
       <c r="F226" s="3">
         <v>14</v>
@@ -5255,13 +5407,13 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C227" t="s">
-        <v>264</v>
+        <v>8</v>
       </c>
       <c r="E227" t="s">
-        <v>291</v>
+        <v>19</v>
       </c>
       <c r="F227" s="3">
         <v>14</v>
@@ -5269,13 +5421,13 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C228" t="s">
-        <v>351</v>
+        <v>8</v>
       </c>
       <c r="E228" t="s">
-        <v>291</v>
+        <v>19</v>
       </c>
       <c r="F228" s="3">
         <v>14</v>
@@ -5283,144 +5435,132 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
+      </c>
+      <c r="B229" t="s">
+        <v>13</v>
       </c>
       <c r="C229" t="s">
-        <v>8</v>
-      </c>
-      <c r="E229" t="s">
-        <v>19</v>
-      </c>
-      <c r="F229" s="3">
-        <v>14</v>
+        <v>350</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C230" t="s">
+        <v>98</v>
+      </c>
+      <c r="F230" s="3" t="s">
         <v>353</v>
-      </c>
-      <c r="C230" t="s">
-        <v>8</v>
-      </c>
-      <c r="E230" t="s">
-        <v>19</v>
-      </c>
-      <c r="F230" s="3">
-        <v>14</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
         <v>354</v>
       </c>
+      <c r="B231" t="s">
+        <v>13</v>
+      </c>
       <c r="C231" t="s">
-        <v>8</v>
-      </c>
-      <c r="E231" t="s">
-        <v>19</v>
-      </c>
-      <c r="F231" s="3">
-        <v>14</v>
+        <v>58</v>
+      </c>
+      <c r="F231" s="3" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C232" t="s">
-        <v>8</v>
-      </c>
-      <c r="E232" t="s">
-        <v>19</v>
+        <v>357</v>
       </c>
       <c r="F232" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C233" t="s">
-        <v>8</v>
-      </c>
-      <c r="E233" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="F233" s="3">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C234" t="s">
-        <v>8</v>
-      </c>
-      <c r="E234" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="F234" s="3">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B235" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C235" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
-        <v>361</v>
+        <v>363</v>
+      </c>
+      <c r="B236" t="s">
+        <v>13</v>
       </c>
       <c r="C236" t="s">
-        <v>102</v>
+        <v>364</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="B237" t="s">
-        <v>13</v>
+        <v>366</v>
       </c>
       <c r="C237" t="s">
-        <v>60</v>
-      </c>
-      <c r="F237" s="3" t="s">
-        <v>364</v>
+        <v>98</v>
+      </c>
+      <c r="F237" s="3">
+        <v>17</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C238" t="s">
-        <v>366</v>
+        <v>98</v>
       </c>
       <c r="F238" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C239" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F239" s="3">
         <v>17</v>
@@ -5428,13 +5568,16 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
-        <v>368</v>
+        <v>536</v>
+      </c>
+      <c r="B240" t="s">
+        <v>27</v>
       </c>
       <c r="C240" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="F240" s="3">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
@@ -5442,155 +5585,164 @@
         <v>369</v>
       </c>
       <c r="B241" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C241" t="s">
-        <v>370</v>
-      </c>
-      <c r="F241" s="3" t="s">
-        <v>371</v>
+        <v>339</v>
+      </c>
+      <c r="F241" s="3">
+        <v>34</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B242" t="s">
         <v>13</v>
       </c>
       <c r="C242" t="s">
-        <v>373</v>
-      </c>
-      <c r="F242" s="3" t="s">
-        <v>374</v>
+        <v>339</v>
+      </c>
+      <c r="F242" s="3">
+        <v>34</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
+      </c>
+      <c r="B243" t="s">
+        <v>13</v>
       </c>
       <c r="C243" t="s">
-        <v>102</v>
+        <v>372</v>
       </c>
       <c r="F243" s="3">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
+      </c>
+      <c r="B244" t="s">
+        <v>13</v>
       </c>
       <c r="C244" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="F244" s="3">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
+      </c>
+      <c r="B245" t="s">
+        <v>13</v>
       </c>
       <c r="C245" t="s">
-        <v>102</v>
+        <v>339</v>
       </c>
       <c r="F245" s="3">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B246" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C246" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="F246" s="3">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B247" t="s">
         <v>13</v>
       </c>
       <c r="C247" t="s">
-        <v>348</v>
+        <v>377</v>
       </c>
       <c r="F247" s="3">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B248" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C248" t="s">
-        <v>348</v>
+        <v>377</v>
       </c>
       <c r="F248" s="3">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B249" t="s">
         <v>13</v>
       </c>
       <c r="C249" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="F249" s="3">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B250" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C250" t="s">
-        <v>91</v>
+        <v>377</v>
       </c>
       <c r="F250" s="3">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B251" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C251" t="s">
-        <v>348</v>
+        <v>377</v>
       </c>
       <c r="F251" s="3">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B252" t="s">
         <v>13</v>
       </c>
       <c r="C252" t="s">
-        <v>31</v>
+        <v>377</v>
       </c>
       <c r="F252" s="3">
         <v>36</v>
@@ -5598,13 +5750,13 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
-        <v>386</v>
+        <v>537</v>
       </c>
       <c r="B253" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C253" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F253" s="3">
         <v>36</v>
@@ -5612,13 +5764,13 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
-        <v>388</v>
+        <v>538</v>
       </c>
       <c r="B254" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C254" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F254" s="3">
         <v>36</v>
@@ -5626,13 +5778,13 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B255" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C255" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F255" s="3">
         <v>36</v>
@@ -5640,13 +5792,13 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B256" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C256" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F256" s="3">
         <v>36</v>
@@ -5654,13 +5806,13 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B257" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C257" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F257" s="3">
         <v>36</v>
@@ -5668,13 +5820,13 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B258" t="s">
         <v>13</v>
       </c>
       <c r="C258" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F258" s="3">
         <v>36</v>
@@ -5682,13 +5834,13 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B259" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C259" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F259" s="3">
         <v>36</v>
@@ -5696,13 +5848,13 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B260" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C260" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F260" s="3">
         <v>36</v>
@@ -5710,13 +5862,13 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B261" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C261" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F261" s="3">
         <v>36</v>
@@ -5724,13 +5876,13 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B262" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C262" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F262" s="3">
         <v>36</v>
@@ -5738,13 +5890,13 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B263" t="s">
         <v>13</v>
       </c>
       <c r="C263" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F263" s="3">
         <v>36</v>
@@ -5752,13 +5904,13 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B264" t="s">
         <v>13</v>
       </c>
       <c r="C264" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F264" s="3">
         <v>36</v>
@@ -5766,13 +5918,13 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B265" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C265" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F265" s="3">
         <v>36</v>
@@ -5780,13 +5932,13 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B266" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C266" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F266" s="3">
         <v>36</v>
@@ -5794,13 +5946,13 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B267" t="s">
         <v>13</v>
       </c>
       <c r="C267" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F267" s="3">
         <v>36</v>
@@ -5808,13 +5960,13 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B268" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C268" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F268" s="3">
         <v>36</v>
@@ -5822,13 +5974,13 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B269" t="s">
         <v>13</v>
       </c>
       <c r="C269" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F269" s="3">
         <v>36</v>
@@ -5836,13 +5988,13 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B270" t="s">
         <v>13</v>
       </c>
       <c r="C270" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F270" s="3">
         <v>36</v>
@@ -5850,13 +6002,13 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B271" t="s">
         <v>13</v>
       </c>
       <c r="C271" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F271" s="3">
         <v>36</v>
@@ -5864,13 +6016,13 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B272" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C272" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F272" s="3">
         <v>36</v>
@@ -5878,13 +6030,13 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
-        <v>407</v>
+        <v>539</v>
       </c>
       <c r="B273" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C273" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F273" s="3">
         <v>36</v>
@@ -5892,13 +6044,13 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
-        <v>408</v>
+        <v>535</v>
       </c>
       <c r="B274" t="s">
         <v>13</v>
       </c>
       <c r="C274" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F274" s="3">
         <v>36</v>
@@ -5906,13 +6058,13 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B275" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C275" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F275" s="3">
         <v>36</v>
@@ -5920,13 +6072,13 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="B276" t="s">
         <v>13</v>
       </c>
       <c r="C276" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F276" s="3">
         <v>36</v>
@@ -5934,13 +6086,13 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="B277" t="s">
         <v>13</v>
       </c>
       <c r="C277" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F277" s="3">
         <v>36</v>
@@ -5948,13 +6100,13 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="B278" t="s">
         <v>13</v>
       </c>
       <c r="C278" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F278" s="3">
         <v>36</v>
@@ -5962,13 +6114,13 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B279" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C279" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F279" s="3">
         <v>36</v>
@@ -5976,125 +6128,125 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" s="3" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="B280" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C280" t="s">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="F280" s="3">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B281" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C281" t="s">
-        <v>387</v>
+        <v>177</v>
       </c>
       <c r="F281" s="3">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="B282" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C282" t="s">
-        <v>387</v>
+        <v>177</v>
       </c>
       <c r="F282" s="3">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="B283" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C283" t="s">
-        <v>387</v>
+        <v>177</v>
       </c>
       <c r="F283" s="3">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B284" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C284" t="s">
-        <v>387</v>
+        <v>177</v>
       </c>
       <c r="F284" s="3">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="B285" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C285" t="s">
-        <v>387</v>
+        <v>177</v>
       </c>
       <c r="F285" s="3">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B286" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C286" t="s">
-        <v>387</v>
+        <v>177</v>
       </c>
       <c r="F286" s="3">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="B287" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C287" t="s">
-        <v>387</v>
+        <v>177</v>
       </c>
       <c r="F287" s="3">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" s="3" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B288" t="s">
         <v>7</v>
       </c>
       <c r="C288" t="s">
-        <v>423</v>
+        <v>177</v>
       </c>
       <c r="F288" s="3">
         <v>38</v>
@@ -6102,13 +6254,13 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B289" t="s">
         <v>7</v>
       </c>
       <c r="C289" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F289" s="3">
         <v>38</v>
@@ -6116,287 +6268,324 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="B290" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C290" t="s">
-        <v>183</v>
+        <v>418</v>
       </c>
       <c r="F290" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="B291" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C291" t="s">
-        <v>183</v>
+        <v>418</v>
       </c>
       <c r="F291" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" s="3" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B292" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C292" t="s">
-        <v>183</v>
+        <v>418</v>
       </c>
       <c r="F292" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="B293" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C293" t="s">
-        <v>183</v>
+        <v>422</v>
       </c>
       <c r="F293" s="3">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" s="3" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B294" t="s">
         <v>7</v>
       </c>
       <c r="C294" t="s">
-        <v>183</v>
+        <v>424</v>
       </c>
       <c r="F294" s="3">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A295" s="3" t="s">
-        <v>430</v>
+      <c r="A295" t="s">
+        <v>425</v>
       </c>
       <c r="B295" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="C295" t="s">
-        <v>183</v>
+        <v>426</v>
       </c>
       <c r="F295" s="3">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" s="3" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B296" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="C296" t="s">
-        <v>183</v>
+        <v>426</v>
       </c>
       <c r="F296" s="3">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B297" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="C297" t="s">
-        <v>183</v>
+        <v>8</v>
       </c>
       <c r="F297" s="3">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B298" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C298" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F298" s="3">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A299" s="3" t="s">
-        <v>435</v>
+      <c r="A299" t="s">
+        <v>431</v>
       </c>
       <c r="B299" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C299" t="s">
-        <v>434</v>
+        <v>8</v>
       </c>
       <c r="F299" s="3">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B300" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C300" t="s">
-        <v>434</v>
+        <v>8</v>
       </c>
       <c r="F300" s="3">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A301" s="3" t="s">
-        <v>437</v>
+      <c r="A301" t="s">
+        <v>433</v>
       </c>
       <c r="B301" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="C301" t="s">
-        <v>438</v>
+        <v>98</v>
       </c>
       <c r="F301" s="3">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B302" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C302" t="s">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="F302" s="3">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>441</v>
+        <v>513</v>
       </c>
       <c r="B303" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="C303" t="s">
-        <v>442</v>
+        <v>515</v>
       </c>
       <c r="F303" s="3">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A304" s="3" t="s">
-        <v>443</v>
+      <c r="A304" t="s">
+        <v>516</v>
       </c>
       <c r="B304" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C304" t="s">
-        <v>442</v>
+        <v>524</v>
       </c>
       <c r="F304" s="3">
-        <v>45</v>
+        <v>66</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A305" s="3" t="s">
-        <v>444</v>
+      <c r="A305" t="s">
+        <v>517</v>
       </c>
       <c r="B305" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C305" t="s">
-        <v>8</v>
+        <v>524</v>
       </c>
       <c r="F305" s="3">
-        <v>47</v>
+        <v>66</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A306" s="3" t="s">
-        <v>445</v>
+      <c r="A306" t="s">
+        <v>518</v>
       </c>
       <c r="B306" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="C306" t="s">
-        <v>446</v>
+        <v>524</v>
       </c>
       <c r="F306" s="3">
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>447</v>
+        <v>519</v>
       </c>
       <c r="B307" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="C307" t="s">
-        <v>8</v>
+        <v>524</v>
       </c>
       <c r="F307" s="3">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A308" s="3" t="s">
-        <v>448</v>
+      <c r="A308" t="s">
+        <v>520</v>
       </c>
       <c r="B308" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="C308" t="s">
-        <v>8</v>
+        <v>524</v>
       </c>
       <c r="F308" s="3">
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>449</v>
+        <v>521</v>
       </c>
       <c r="B309" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C309" t="s">
-        <v>102</v>
+        <v>524</v>
       </c>
       <c r="F309" s="3">
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A310" s="3" t="s">
-        <v>450</v>
+      <c r="A310" t="s">
+        <v>522</v>
+      </c>
+      <c r="B310" t="s">
+        <v>83</v>
+      </c>
+      <c r="C310" t="s">
+        <v>524</v>
+      </c>
+      <c r="F310" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>523</v>
+      </c>
+      <c r="B311" t="s">
+        <v>83</v>
+      </c>
+      <c r="C311" t="s">
+        <v>524</v>
+      </c>
+      <c r="F311" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>527</v>
+      </c>
+      <c r="B312" t="s">
+        <v>83</v>
+      </c>
+      <c r="C312" t="s">
+        <v>528</v>
+      </c>
+      <c r="F312" s="3">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -6406,10 +6595,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6544894E-BE1B-6143-B221-82724E45982C}">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6419,7 +6608,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -6427,7 +6616,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -6435,7 +6624,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -6443,7 +6632,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -6451,7 +6640,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -6459,7 +6648,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -6467,7 +6656,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -6475,7 +6664,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -6483,7 +6672,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -6491,7 +6680,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -6499,7 +6688,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -6507,7 +6696,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -6515,7 +6704,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -6523,7 +6712,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -6531,7 +6720,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -6539,7 +6728,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -6547,7 +6736,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -6555,7 +6744,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -6563,7 +6752,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -6571,7 +6760,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -6579,7 +6768,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -6587,7 +6776,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -6595,7 +6784,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -6603,7 +6792,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -6611,7 +6800,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -6619,7 +6808,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -6627,7 +6816,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -6635,7 +6824,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -6643,7 +6832,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -6651,7 +6840,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -6659,7 +6848,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -6667,7 +6856,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -6675,7 +6864,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -6683,7 +6872,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -6691,7 +6880,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -6699,7 +6888,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -6707,7 +6896,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -6715,7 +6904,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -6723,7 +6912,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -6731,7 +6920,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -6739,7 +6928,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -6747,7 +6936,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -6755,7 +6944,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -6763,7 +6952,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -6771,7 +6960,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -6779,7 +6968,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -6787,7 +6976,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -6795,7 +6984,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -6803,7 +6992,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -6811,7 +7000,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -6819,7 +7008,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -6827,7 +7016,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -6835,7 +7024,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -6843,7 +7032,119 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
         <v>504</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>526</v>
       </c>
     </row>
   </sheetData>
